--- a/Все таблицы с данными.xlsx
+++ b/Все таблицы с данными.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -393,9 +393,6 @@
     <t>loginDElhk2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Чернова </t>
-  </si>
-  <si>
     <t>usi{aT</t>
   </si>
   <si>
@@ -1324,6 +1321,153 @@
   </si>
   <si>
     <t>Гость</t>
+  </si>
+  <si>
+    <t>Никифоров</t>
+  </si>
+  <si>
+    <t>Воронов</t>
+  </si>
+  <si>
+    <t>Игнатьева</t>
+  </si>
+  <si>
+    <t>Буров</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Денисов</t>
+  </si>
+  <si>
+    <t>Ершов</t>
+  </si>
+  <si>
+    <t>Копылов</t>
+  </si>
+  <si>
+    <t>Носов</t>
+  </si>
+  <si>
+    <t>Силин</t>
+  </si>
+  <si>
+    <t>Дроздова</t>
+  </si>
+  <si>
+    <t>Дроздов</t>
+  </si>
+  <si>
+    <t>Боброва</t>
+  </si>
+  <si>
+    <t>Чернова</t>
+  </si>
+  <si>
+    <t>Лыткина</t>
+  </si>
+  <si>
+    <t>Лаврентьев</t>
+  </si>
+  <si>
+    <t>Кулаков</t>
+  </si>
+  <si>
+    <t>Соловьёв</t>
+  </si>
+  <si>
+    <t>Корнилова</t>
+  </si>
+  <si>
+    <t>Белоусова</t>
+  </si>
+  <si>
+    <t>Анисимов</t>
+  </si>
+  <si>
+    <t>Стрелкова</t>
+  </si>
+  <si>
+    <t>Осипов</t>
+  </si>
+  <si>
+    <t>Владимирова</t>
+  </si>
+  <si>
+    <t>Кудрявцева</t>
+  </si>
+  <si>
+    <t>Матвиенко</t>
+  </si>
+  <si>
+    <t>Селезнёв</t>
+  </si>
+  <si>
+    <t>Брагин</t>
+  </si>
+  <si>
+    <t>Гордеев</t>
+  </si>
+  <si>
+    <t>Мартынов</t>
+  </si>
+  <si>
+    <t>Никонова</t>
+  </si>
+  <si>
+    <t>Полякова</t>
+  </si>
+  <si>
+    <t>Макарова</t>
+  </si>
+  <si>
+    <t>Андреева</t>
+  </si>
+  <si>
+    <t>Шилова</t>
+  </si>
+  <si>
+    <t>Ситников</t>
+  </si>
+  <si>
+    <t>Русаков</t>
+  </si>
+  <si>
+    <t>Капустина</t>
+  </si>
+  <si>
+    <t>Беляков</t>
+  </si>
+  <si>
+    <t>Гурьев</t>
+  </si>
+  <si>
+    <t>Мишин</t>
+  </si>
+  <si>
+    <t>Лазарева</t>
+  </si>
+  <si>
+    <t>Маркова</t>
+  </si>
+  <si>
+    <t>Носкова</t>
+  </si>
+  <si>
+    <t>Баранов</t>
+  </si>
+  <si>
+    <t>Ефремов</t>
+  </si>
+  <si>
+    <t>Константинов</t>
+  </si>
+  <si>
+    <t>Ситникова</t>
+  </si>
+  <si>
+    <t>Матвеев</t>
   </si>
 </sst>
 </file>
@@ -1333,9 +1477,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1529,75 +1681,75 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1608,24 +1760,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2080,7 +2233,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2170,7 +2323,7 @@
         <v>311</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J2" s="19">
         <f t="shared" ref="J2:J11" si="0">INDEX($K$2:$K$3,MATCH(I2,$L$2:$L$3,0))</f>
@@ -2180,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N2" s="21"/>
     </row>
@@ -2242,7 +2395,7 @@
         <v>313</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
@@ -2273,7 +2426,7 @@
         <v>314</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="0"/>
@@ -2335,7 +2488,7 @@
         <v>316</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" si="0"/>
@@ -2366,7 +2519,7 @@
         <v>317</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
@@ -2399,7 +2552,7 @@
         <v>318</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
@@ -2432,7 +2585,7 @@
         <v>319</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
@@ -2463,7 +2616,7 @@
         <v>320</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
@@ -2512,11 +2665,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G14" s="24">
         <f>INDEX($H$14:$H$66,MATCH(F14,$I$14:$I$66,0))</f>
@@ -2526,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -2539,14 +2692,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" s="49">
         <v>10</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G15" s="24">
         <f>INDEX($H$14:$H$66,MATCH(F15,$I$14:$I$66,0))</f>
@@ -2556,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -2569,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="49">
         <v>2</v>
@@ -2581,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -2594,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="49">
         <v>10</v>
@@ -2606,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -2619,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="49">
         <v>1</v>
@@ -2631,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -2644,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="49">
         <v>10</v>
@@ -2656,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2669,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D20" s="49">
         <v>10</v>
@@ -2681,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -2694,14 +2847,14 @@
         <v>4</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="49">
         <v>10</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G21" s="24">
         <f>INDEX($H$14:$H$66,MATCH(F21,$I$14:$I$66,0))</f>
@@ -2711,7 +2864,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -2724,14 +2877,14 @@
         <v>4</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D22" s="49">
         <v>10</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G22" s="24">
         <f>INDEX($H$14:$H$66,MATCH(F22,$I$14:$I$66,0))</f>
@@ -2741,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -2754,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="49">
         <v>1</v>
@@ -2766,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -2779,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="49">
         <v>1</v>
@@ -2791,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -2804,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" s="49">
         <v>2</v>
@@ -2816,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -2829,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="49">
         <v>15</v>
@@ -2841,7 +2994,7 @@
         <v>13</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -2854,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="49">
         <v>20</v>
@@ -2879,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="49">
         <v>1</v>
@@ -2896,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" s="49">
         <v>5</v>
@@ -2921,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="49">
         <v>1</v>
@@ -2946,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="49">
         <v>1</v>
@@ -2971,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="49">
         <v>1</v>
@@ -2996,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="49">
         <v>5</v>
@@ -3021,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="49">
         <v>3</v>
@@ -3502,7 +3655,7 @@
         <v>51</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3514,7 +3667,7 @@
         <v>52</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="8:9">
@@ -3522,7 +3675,7 @@
         <v>53</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="8:9">
@@ -3530,7 +3683,7 @@
         <v>54</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3582,67 +3735,67 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P1" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="V1" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="Z1" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="AA1" s="44" t="s">
         <v>308</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
@@ -3663,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:K31" si="0">INDEX($L$2:$L$3,MATCH(N2,$M$2:$M$3,0))</f>
@@ -3676,19 +3829,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O2" s="6">
         <v>1</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" ref="R2:R31" si="1">INDEX($O$2:$O$5,MATCH(Q2,$P$2:$P$5,0))</f>
@@ -3698,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="U2" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V2" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W2" s="6">
         <f t="shared" ref="W2:W31" si="2">INDEX($T$2:$T$3,MATCH(V2,$U$2:$U$3,0))</f>
@@ -3711,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="Z2" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA2" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB2" s="6">
         <f t="shared" ref="AB2:AB31" si="3">INDEX($Y$2:$Y$10,MATCH(AA2,$Z$2:$Z$10,0))</f>
@@ -3723,10 +3876,10 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -3747,10 +3900,10 @@
         <v>23</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -3760,19 +3913,19 @@
         <v>2</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O3" s="6">
         <v>2</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" si="1"/>
@@ -3782,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W3" s="6">
         <f t="shared" si="2"/>
@@ -3795,10 +3948,10 @@
         <v>2</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA3" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB3" s="6">
         <f t="shared" si="3"/>
@@ -3807,10 +3960,10 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="46">
         <v>2</v>
@@ -3831,10 +3984,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="0"/>
@@ -3843,23 +3996,23 @@
       <c r="L4" s="8"/>
       <c r="M4" s="6"/>
       <c r="N4" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O4" s="6">
         <v>3</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W4" s="6">
         <f t="shared" si="2"/>
@@ -3869,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB4" s="6">
         <f t="shared" si="3"/>
@@ -3881,10 +4034,10 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
@@ -3905,10 +4058,10 @@
         <v>45</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="0"/>
@@ -3917,23 +4070,23 @@
       <c r="L5" s="8"/>
       <c r="M5" s="6"/>
       <c r="N5" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O5" s="6">
         <v>4</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W5" s="6">
         <f t="shared" si="2"/>
@@ -3943,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA5" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB5" s="6">
         <f t="shared" si="3"/>
@@ -3955,10 +4108,10 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="46">
         <v>1</v>
@@ -3979,10 +4132,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="0"/>
@@ -3991,17 +4144,17 @@
       <c r="L6" s="8"/>
       <c r="M6" s="6"/>
       <c r="N6" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V6" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W6" s="6">
         <f t="shared" si="2"/>
@@ -4011,10 +4164,10 @@
         <v>5</v>
       </c>
       <c r="Z6" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA6" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB6" s="6">
         <f t="shared" si="3"/>
@@ -4023,10 +4176,10 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="46">
         <v>2</v>
@@ -4047,10 +4200,10 @@
         <v>32</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
@@ -4059,17 +4212,17 @@
       <c r="L7" s="8"/>
       <c r="M7" s="6"/>
       <c r="N7" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V7" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" si="2"/>
@@ -4079,10 +4232,10 @@
         <v>6</v>
       </c>
       <c r="Z7" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA7" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB7" s="6">
         <f t="shared" si="3"/>
@@ -4091,10 +4244,10 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="46">
         <v>1</v>
@@ -4115,10 +4268,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
@@ -4127,17 +4280,17 @@
       <c r="L8" s="8"/>
       <c r="M8" s="6"/>
       <c r="N8" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V8" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="2"/>
@@ -4147,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="Z8" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA8" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="3"/>
@@ -4159,10 +4312,10 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="46">
         <v>1</v>
@@ -4183,10 +4336,10 @@
         <v>12</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="0"/>
@@ -4195,17 +4348,17 @@
       <c r="L9" s="8"/>
       <c r="M9" s="6"/>
       <c r="N9" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V9" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="2"/>
@@ -4215,10 +4368,10 @@
         <v>8</v>
       </c>
       <c r="Z9" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA9" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="3"/>
@@ -4227,10 +4380,10 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
@@ -4251,10 +4404,10 @@
         <v>8</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
@@ -4263,17 +4416,17 @@
       <c r="L10" s="8"/>
       <c r="M10" s="6"/>
       <c r="N10" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V10" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="2"/>
@@ -4283,10 +4436,10 @@
         <v>9</v>
       </c>
       <c r="Z10" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA10" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="3"/>
@@ -4295,10 +4448,10 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="46">
         <v>1</v>
@@ -4319,10 +4472,10 @@
         <v>26</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="0"/>
@@ -4331,24 +4484,24 @@
       <c r="L11" s="8"/>
       <c r="M11" s="6"/>
       <c r="N11" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V11" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA11" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="3"/>
@@ -4357,10 +4510,10 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="46">
         <v>2</v>
@@ -4381,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="6">
@@ -4391,24 +4544,24 @@
       <c r="L12" s="8"/>
       <c r="M12" s="6"/>
       <c r="N12" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V12" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA12" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="3"/>
@@ -4417,10 +4570,10 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="46">
         <v>2</v>
@@ -4441,7 +4594,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="6">
@@ -4451,24 +4604,24 @@
       <c r="L13" s="8"/>
       <c r="M13" s="6"/>
       <c r="N13" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V13" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA13" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="3"/>
@@ -4477,10 +4630,10 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="46">
         <v>2</v>
@@ -4501,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="6">
@@ -4511,24 +4664,24 @@
       <c r="L14" s="8"/>
       <c r="M14" s="6"/>
       <c r="N14" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V14" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA14" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="3"/>
@@ -4537,10 +4690,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="46">
         <v>2</v>
@@ -4561,7 +4714,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="6">
@@ -4571,24 +4724,24 @@
       <c r="L15" s="8"/>
       <c r="M15" s="6"/>
       <c r="N15" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V15" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA15" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="3"/>
@@ -4597,10 +4750,10 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="46">
         <v>2</v>
@@ -4621,7 +4774,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="6">
@@ -4631,24 +4784,24 @@
       <c r="L16" s="8"/>
       <c r="M16" s="6"/>
       <c r="N16" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V16" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA16" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="3"/>
@@ -4657,10 +4810,10 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="46">
         <v>1</v>
@@ -4681,7 +4834,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="6">
@@ -4691,24 +4844,24 @@
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
       <c r="N17" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V17" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA17" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="3"/>
@@ -4717,10 +4870,10 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="46">
         <v>1</v>
@@ -4741,7 +4894,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="47"/>
       <c r="K18" s="6">
@@ -4751,24 +4904,24 @@
       <c r="L18" s="8"/>
       <c r="M18" s="6"/>
       <c r="N18" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA18" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="3"/>
@@ -4777,10 +4930,10 @@
     </row>
     <row r="19" spans="1:28" s="7" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="46">
         <v>1</v>
@@ -4801,7 +4954,7 @@
         <v>32</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="6">
@@ -4811,11 +4964,11 @@
       <c r="L19" s="8"/>
       <c r="M19" s="6"/>
       <c r="N19" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="1"/>
@@ -4823,7 +4976,7 @@
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="2"/>
@@ -4831,7 +4984,7 @@
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="3"/>
@@ -4840,10 +4993,10 @@
     </row>
     <row r="20" spans="1:28" s="7" customFormat="1">
       <c r="A20" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="46">
         <v>1</v>
@@ -4864,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="6">
@@ -4874,11 +5027,11 @@
       <c r="L20" s="8"/>
       <c r="M20" s="6"/>
       <c r="N20" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="1"/>
@@ -4886,7 +5039,7 @@
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="2"/>
@@ -4894,7 +5047,7 @@
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="3"/>
@@ -4903,10 +5056,10 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="48">
         <v>1</v>
@@ -4927,7 +5080,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J21" s="48"/>
       <c r="K21" s="6">
@@ -4937,24 +5090,24 @@
       <c r="L21" s="8"/>
       <c r="M21" s="6"/>
       <c r="N21" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V21" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA21" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="3"/>
@@ -4963,10 +5116,10 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="46">
         <v>1</v>
@@ -4987,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="6">
@@ -4996,24 +5149,24 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V22" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA22" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="3"/>
@@ -5022,10 +5175,10 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="46">
         <v>1</v>
@@ -5046,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="6">
@@ -5055,24 +5208,24 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V23" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA23" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="3"/>
@@ -5081,10 +5234,10 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="46">
         <v>2</v>
@@ -5105,7 +5258,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="6">
@@ -5114,24 +5267,24 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V24" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA24" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="3"/>
@@ -5140,10 +5293,10 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="46">
         <v>1</v>
@@ -5164,7 +5317,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="6">
@@ -5173,24 +5326,24 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V25" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA25" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB25" s="6">
         <f t="shared" si="3"/>
@@ -5199,10 +5352,10 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="46">
         <v>2</v>
@@ -5223,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J26" s="46"/>
       <c r="K26" s="6">
@@ -5232,24 +5385,24 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V26" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W26" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA26" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB26" s="6">
         <f t="shared" si="3"/>
@@ -5258,10 +5411,10 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="46">
         <v>1</v>
@@ -5282,7 +5435,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J27" s="46"/>
       <c r="K27" s="6">
@@ -5291,24 +5444,24 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V27" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W27" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA27" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB27" s="6">
         <f t="shared" si="3"/>
@@ -5317,10 +5470,10 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="46">
         <v>2</v>
@@ -5341,7 +5494,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J28" s="46"/>
       <c r="K28" s="6">
@@ -5350,24 +5503,24 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V28" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA28" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB28" s="6">
         <f t="shared" si="3"/>
@@ -5376,10 +5529,10 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="46">
         <v>1</v>
@@ -5400,7 +5553,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J29" s="46"/>
       <c r="K29" s="6">
@@ -5409,24 +5562,24 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V29" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA29" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB29" s="6">
         <f t="shared" si="3"/>
@@ -5435,10 +5588,10 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="46">
         <v>1</v>
@@ -5459,7 +5612,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="6">
@@ -5468,24 +5621,24 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V30" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W30" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA30" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB30" s="6">
         <f t="shared" si="3"/>
@@ -5494,10 +5647,10 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="46">
         <v>1</v>
@@ -5518,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J31" s="46"/>
       <c r="K31" s="6">
@@ -5527,24 +5680,24 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V31" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA31" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB31" s="6">
         <f t="shared" si="3"/>
@@ -5618,16 +5771,16 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -5637,13 +5790,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="46">
         <v>1</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F38" s="46">
         <v>1</v>
@@ -5656,13 +5809,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="46">
         <v>2</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F39" s="46">
         <v>1</v>
@@ -5675,13 +5828,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" s="46">
         <v>2</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F40" s="46">
         <v>1</v>
@@ -5694,13 +5847,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" s="46">
         <v>3</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F41" s="46">
         <v>1</v>
@@ -5713,13 +5866,13 @@
     </row>
     <row r="42" spans="1:12">
       <c r="B42" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C42" s="46">
         <v>4</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F42" s="46">
         <v>2</v>
@@ -5732,13 +5885,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="B43" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="46">
         <v>5</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F43" s="46">
         <v>2</v>
@@ -5751,13 +5904,13 @@
     </row>
     <row r="44" spans="1:12">
       <c r="B44" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C44" s="46">
         <v>6</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F44" s="46">
         <v>2</v>
@@ -5770,13 +5923,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="B45" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="46">
         <v>7</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="46">
         <v>2</v>
@@ -5789,13 +5942,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" s="46">
         <v>6</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F46" s="46">
         <v>2</v>
@@ -5808,13 +5961,13 @@
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="46">
         <v>7</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F47" s="46">
         <v>2</v>
@@ -5827,13 +5980,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="46">
         <v>2</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F48" s="46">
         <v>1</v>
@@ -5846,13 +5999,13 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C49" s="46">
         <v>2</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="46">
         <v>1</v>
@@ -5865,13 +6018,13 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" s="46">
         <v>8</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" s="46">
         <v>1</v>
@@ -5884,13 +6037,13 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" s="46">
         <v>2</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" s="46">
         <v>1</v>
@@ -5903,13 +6056,13 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C52" s="46">
         <v>8</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="46">
         <v>1</v>
@@ -5922,13 +6075,13 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="46">
         <v>6</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F53" s="46">
         <v>2</v>
@@ -5941,13 +6094,13 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="47">
         <v>7</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F54" s="47">
         <v>2</v>
@@ -5960,13 +6113,13 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="46">
         <v>1</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F55" s="46">
         <v>2</v>
@@ -5974,13 +6127,13 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" s="46">
         <v>9</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" s="46">
         <v>2</v>
@@ -5988,13 +6141,13 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" s="48">
         <v>2</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" s="48">
         <v>1</v>
@@ -6002,13 +6155,13 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="46">
         <v>2</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58" s="46">
         <v>1</v>
@@ -6016,13 +6169,13 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C59" s="46">
         <v>2</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F59" s="46">
         <v>1</v>
@@ -6030,13 +6183,13 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="46">
         <v>2</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60" s="46">
         <v>1</v>
@@ -6044,13 +6197,13 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C61" s="46">
         <v>9</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F61" s="46">
         <v>2</v>
@@ -6058,13 +6211,13 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C62" s="46">
         <v>6</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" s="46">
         <v>2</v>
@@ -6072,13 +6225,13 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" s="46">
         <v>9</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F63" s="46">
         <v>2</v>
@@ -6086,13 +6239,13 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="46">
         <v>9</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F64" s="46">
         <v>2</v>
@@ -6100,13 +6253,13 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C65" s="46">
         <v>6</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65" s="46">
         <v>2</v>
@@ -6114,13 +6267,13 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C66" s="46">
         <v>2</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F66" s="46">
         <v>1</v>
@@ -6128,13 +6281,13 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="46">
         <v>8</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F67" s="46">
         <v>1</v>
@@ -6161,10 +6314,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
         <v>315</v>
-      </c>
-      <c r="B1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6172,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6180,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6188,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6196,7 +6349,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6204,7 +6357,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6212,7 +6365,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6220,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6228,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6236,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6244,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6252,7 +6405,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6260,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6268,7 +6421,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6276,7 +6429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6284,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6292,7 +6445,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6300,7 +6453,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6308,7 +6461,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6316,7 +6469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6324,7 +6477,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6332,7 +6485,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6340,7 +6493,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6348,7 +6501,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6356,7 +6509,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6364,7 +6517,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6372,7 +6525,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6380,7 +6533,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6388,7 +6541,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6396,7 +6549,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6404,7 +6557,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6412,7 +6565,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6420,7 +6573,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6428,7 +6581,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6436,7 +6589,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6444,7 +6597,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6452,7 +6605,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6465,7 +6618,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6483,28 +6636,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6512,19 +6665,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -6540,20 +6693,20 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
+      <c r="B3" s="50" t="s">
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6577,19 +6730,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>429</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -6613,19 +6766,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -6648,20 +6801,20 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>148</v>
+      <c r="B6" s="50" t="s">
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -6680,19 +6833,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -6711,19 +6864,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -6742,19 +6895,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -6773,19 +6926,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -6804,19 +6957,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -6835,19 +6988,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -6866,19 +7019,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>438</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -6897,19 +7050,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>439</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -6928,19 +7081,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>440</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -6959,13 +7112,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>441</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>117</v>
@@ -6990,13 +7143,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>442</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>114</v>
@@ -7021,19 +7174,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>443</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7052,13 +7205,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>109</v>
@@ -7083,13 +7236,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>106</v>
@@ -7114,13 +7267,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>446</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
@@ -7145,13 +7298,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>447</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>100</v>
@@ -7176,13 +7329,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>97</v>
@@ -7207,13 +7360,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>449</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>94</v>
@@ -7238,13 +7391,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>91</v>
@@ -7269,19 +7422,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>451</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -7300,13 +7453,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>452</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>87</v>
@@ -7331,13 +7484,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>453</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>84</v>
@@ -7362,13 +7515,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>81</v>
@@ -7393,13 +7546,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>78</v>
@@ -7424,13 +7577,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>75</v>
@@ -7455,13 +7608,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>72</v>
@@ -7486,13 +7639,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>69</v>
@@ -7517,13 +7670,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -7548,13 +7701,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>63</v>
@@ -7569,7 +7722,7 @@
         <v>26</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="1">INDEX($J$3:$J$5,MATCH(H35,$K$3:$K$5,0))</f>
+        <f t="shared" ref="I35:I52" si="1">INDEX($J$3:$J$5,MATCH(H35,$K$3:$K$5,0))</f>
         <v>1</v>
       </c>
       <c r="K35"/>
@@ -7579,13 +7732,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>461</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>60</v>
@@ -7610,19 +7763,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>452</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7641,13 +7794,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>55</v>
@@ -7672,13 +7825,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>52</v>
@@ -7703,13 +7856,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -7734,13 +7887,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>465</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>46</v>
@@ -7765,13 +7918,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
@@ -7796,13 +7949,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>467</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>40</v>
@@ -7827,13 +7980,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>37</v>
@@ -7858,13 +8011,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>34</v>
@@ -7889,13 +8042,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
@@ -7920,13 +8073,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
@@ -7951,13 +8104,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
@@ -7982,13 +8135,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>21</v>
@@ -8013,13 +8166,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>18</v>
@@ -8044,13 +8197,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>475</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
@@ -8075,13 +8228,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
@@ -8106,19 +8259,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -8131,20 +8284,20 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
@@ -8158,19 +8311,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -8184,19 +8337,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G56" s="1">
         <v>3</v>

--- a/Все таблицы с данными.xlsx
+++ b/Все таблицы с данными.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="5" state="hidden" r:id="rId1"/>
@@ -3697,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6617,7 +6617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
